--- a/Airfoil_Analysis/Airfoil_Data.xlsx
+++ b/Airfoil_Analysis/Airfoil_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/westonpace/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/westonpace/Desktop/Flo Lab/497/Airfoil_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEC5083-A6B1-1C4E-9354-6E5D8ADECF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31871108-0B52-A44B-8C81-408DD4FB8358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{80D94EF3-0FF4-6A4E-AF2E-4F124A7BC357}"/>
+    <workbookView xWindow="2620" yWindow="2460" windowWidth="28040" windowHeight="16260" xr2:uid="{80D94EF3-0FF4-6A4E-AF2E-4F124A7BC357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="1506">
   <si>
     <t>NACA 2412</t>
   </si>
@@ -1547,6 +1547,3012 @@
   </si>
   <si>
     <t>-4.38734365142033,</t>
+  </si>
+  <si>
+    <t>NACA 0024</t>
+  </si>
+  <si>
+    <t>-27.73686719880848,</t>
+  </si>
+  <si>
+    <t>-27.333947390186747,</t>
+  </si>
+  <si>
+    <t>-26.885394379725557,</t>
+  </si>
+  <si>
+    <t>-26.39538840965242,</t>
+  </si>
+  <si>
+    <t>-25.861174522962955,</t>
+  </si>
+  <si>
+    <t>-25.27081617027315,</t>
+  </si>
+  <si>
+    <t>-24.661565139130378,</t>
+  </si>
+  <si>
+    <t>-24.0485266312639,</t>
+  </si>
+  <si>
+    <t>-23.51468060324394,</t>
+  </si>
+  <si>
+    <t>-23.121806602500577,</t>
+  </si>
+  <si>
+    <t>-22.709298546441367,</t>
+  </si>
+  <si>
+    <t>-22.249709350732243,</t>
+  </si>
+  <si>
+    <t>-21.7493309837853,</t>
+  </si>
+  <si>
+    <t>-21.209660305821412,</t>
+  </si>
+  <si>
+    <t>-20.632140858085826,</t>
+  </si>
+  <si>
+    <t>-20.049232483525202,</t>
+  </si>
+  <si>
+    <t>-19.43103478110546,</t>
+  </si>
+  <si>
+    <t>-18.794275476705497,</t>
+  </si>
+  <si>
+    <t>-18.148057023568526,</t>
+  </si>
+  <si>
+    <t>-17.64556541017423,</t>
+  </si>
+  <si>
+    <t>-17.214022688428418,</t>
+  </si>
+  <si>
+    <t>-16.771651598266004,</t>
+  </si>
+  <si>
+    <t>-16.29223267639046,</t>
+  </si>
+  <si>
+    <t>-15.780133957794279,</t>
+  </si>
+  <si>
+    <t>-15.253551118577533,</t>
+  </si>
+  <si>
+    <t>-14.70717892168078,</t>
+  </si>
+  <si>
+    <t>-14.143702337402605,</t>
+  </si>
+  <si>
+    <t>-13.567799403337265,</t>
+  </si>
+  <si>
+    <t>-12.995661848163603,</t>
+  </si>
+  <si>
+    <t>-12.444861679990662,</t>
+  </si>
+  <si>
+    <t>-12.019039558058934,</t>
+  </si>
+  <si>
+    <t>-11.604791927704863,</t>
+  </si>
+  <si>
+    <t>-11.086579337064412,</t>
+  </si>
+  <si>
+    <t>-10.52075305438347,</t>
+  </si>
+  <si>
+    <t>-9.920285341174829,</t>
+  </si>
+  <si>
+    <t>-9.296954456633765,</t>
+  </si>
+  <si>
+    <t>-8.658198638073914,</t>
+  </si>
+  <si>
+    <t>-8.006968621297535,</t>
+  </si>
+  <si>
+    <t>-7.35528124341167,</t>
+  </si>
+  <si>
+    <t>-6.715717288301449,</t>
+  </si>
+  <si>
+    <t>-6.161533418605163,</t>
+  </si>
+  <si>
+    <t>-5.633157295491741,</t>
+  </si>
+  <si>
+    <t>-5.050508284440781,</t>
+  </si>
+  <si>
+    <t>-4.433439046301212,</t>
+  </si>
+  <si>
+    <t>-3.795038845150577,</t>
+  </si>
+  <si>
+    <t>-3.1447642852433555,</t>
+  </si>
+  <si>
+    <t>-2.4893759398823767,</t>
+  </si>
+  <si>
+    <t>-1.8343986203251332,</t>
+  </si>
+  <si>
+    <t>-1.1884792437361074,</t>
+  </si>
+  <si>
+    <t>-0.565361170542285,</t>
+  </si>
+  <si>
+    <t>4.833540074298772e-12,</t>
+  </si>
+  <si>
+    <t>0.5653767114768562,</t>
+  </si>
+  <si>
+    <t>1.188547653950073,</t>
+  </si>
+  <si>
+    <t>1.8345552221508201,</t>
+  </si>
+  <si>
+    <t>2.4896548568331673,</t>
+  </si>
+  <si>
+    <t>3.1451997018143705,</t>
+  </si>
+  <si>
+    <t>3.7956652115961846,</t>
+  </si>
+  <si>
+    <t>4.43429234126374,</t>
+  </si>
+  <si>
+    <t>5.0516246909206775,</t>
+  </si>
+  <si>
+    <t>5.642742559290638,</t>
+  </si>
+  <si>
+    <t>6.163273963111663,</t>
+  </si>
+  <si>
+    <t>6.71785747934328,</t>
+  </si>
+  <si>
+    <t>7.357876319624303,</t>
+  </si>
+  <si>
+    <t>8.010046731542198,</t>
+  </si>
+  <si>
+    <t>8.661785935090453,</t>
+  </si>
+  <si>
+    <t>9.301089627608151,</t>
+  </si>
+  <si>
+    <t>9.925007346256278,</t>
+  </si>
+  <si>
+    <t>10.526101629058731,</t>
+  </si>
+  <si>
+    <t>11.09259557542875,</t>
+  </si>
+  <si>
+    <t>11.612211562544145,</t>
+  </si>
+  <si>
+    <t>12.028247593786189,</t>
+  </si>
+  <si>
+    <t>12.455553967860004,</t>
+  </si>
+  <si>
+    <t>13.007582957192161,</t>
+  </si>
+  <si>
+    <t>13.580557159023252,</t>
+  </si>
+  <si>
+    <t>14.157481498768975,</t>
+  </si>
+  <si>
+    <t>14.72171776526981,</t>
+  </si>
+  <si>
+    <t>15.268807175995418,</t>
+  </si>
+  <si>
+    <t>15.795851325427781,</t>
+  </si>
+  <si>
+    <t>16.308416260343957,</t>
+  </si>
+  <si>
+    <t>16.788168351767258,</t>
+  </si>
+  <si>
+    <t>17.230790866678348,</t>
+  </si>
+  <si>
+    <t>17.662872519731746,</t>
+  </si>
+  <si>
+    <t>18.166773712868423,</t>
+  </si>
+  <si>
+    <t>18.81395264678451,</t>
+  </si>
+  <si>
+    <t>19.451989713531972,</t>
+  </si>
+  <si>
+    <t>20.071239279270483,</t>
+  </si>
+  <si>
+    <t>20.655041702033454,</t>
+  </si>
+  <si>
+    <t>21.233462713903144,</t>
+  </si>
+  <si>
+    <t>21.773898491405763,</t>
+  </si>
+  <si>
+    <t>22.275017196580674,</t>
+  </si>
+  <si>
+    <t>22.735304736368526,</t>
+  </si>
+  <si>
+    <t>23.148490621186923,</t>
+  </si>
+  <si>
+    <t>23.54236391328599,</t>
+  </si>
+  <si>
+    <t>24.07864576521826,</t>
+  </si>
+  <si>
+    <t>24.692749900772203,</t>
+  </si>
+  <si>
+    <t>25.304056818229792,</t>
+  </si>
+  <si>
+    <t>25.896002377445747,</t>
+  </si>
+  <si>
+    <t>26.431477546017472,</t>
+  </si>
+  <si>
+    <t>26.922592480362926,</t>
+  </si>
+  <si>
+    <t>27.371859923258942,</t>
+  </si>
+  <si>
+    <t>27.77535781313313,</t>
+  </si>
+  <si>
+    <t>28.127886787410944,</t>
+  </si>
+  <si>
+    <t>28.4224447558128,</t>
+  </si>
+  <si>
+    <t>28.73919438489201,</t>
+  </si>
+  <si>
+    <t>29.307063299064524,</t>
+  </si>
+  <si>
+    <t>29.86899577501543,</t>
+  </si>
+  <si>
+    <t>30.398392797920252,</t>
+  </si>
+  <si>
+    <t>30.874987193207122,</t>
+  </si>
+  <si>
+    <t>31.288027640879776,</t>
+  </si>
+  <si>
+    <t>31.647204315551345,</t>
+  </si>
+  <si>
+    <t>31.951949132284994,</t>
+  </si>
+  <si>
+    <t>32.26657791188884,</t>
+  </si>
+  <si>
+    <t>32.516663378492304,</t>
+  </si>
+  <si>
+    <t>32.704528400297,</t>
+  </si>
+  <si>
+    <t>32.93207403673611,</t>
+  </si>
+  <si>
+    <t>33.393082654709104,</t>
+  </si>
+  <si>
+    <t>33.82413544978865,</t>
+  </si>
+  <si>
+    <t>34.21794905779407,</t>
+  </si>
+  <si>
+    <t>34.59523043450662,</t>
+  </si>
+  <si>
+    <t>34.9016457707912,</t>
+  </si>
+  <si>
+    <t>35.139967870721584,</t>
+  </si>
+  <si>
+    <t>35.322645417247564,</t>
+  </si>
+  <si>
+    <t>35.45250050616794,</t>
+  </si>
+  <si>
+    <t>35.52431635822292,</t>
+  </si>
+  <si>
+    <t>35.542949118126664,</t>
+  </si>
+  <si>
+    <t>35.71674329187629,</t>
+  </si>
+  <si>
+    <t>36.07005250114434,</t>
+  </si>
+  <si>
+    <t>36.383316287613766,</t>
+  </si>
+  <si>
+    <t>36.65374893819623,</t>
+  </si>
+  <si>
+    <t>36.84514843235635,</t>
+  </si>
+  <si>
+    <t>36.9649597412796,</t>
+  </si>
+  <si>
+    <t>37.04245057756755,</t>
+  </si>
+  <si>
+    <t>37.099858006108946,</t>
+  </si>
+  <si>
+    <t>37.09519158234738,</t>
+  </si>
+  <si>
+    <t>37.02855504617833,</t>
+  </si>
+  <si>
+    <t>36.91407111239038,</t>
+  </si>
+  <si>
+    <t>36.93924537393249,</t>
+  </si>
+  <si>
+    <t>37.134481978223135,</t>
+  </si>
+  <si>
+    <t>37.31061858189464,</t>
+  </si>
+  <si>
+    <t>37.40432215455339,</t>
+  </si>
+  <si>
+    <t>37.42398753770602,</t>
+  </si>
+  <si>
+    <t>37.39636642164988,</t>
+  </si>
+  <si>
+    <t>37.340026962322504,</t>
+  </si>
+  <si>
+    <t>37.251616201501434,</t>
+  </si>
+  <si>
+    <t>37.1227492277324,</t>
+  </si>
+  <si>
+    <t>36.92283692176692,</t>
+  </si>
+  <si>
+    <t>36.67002273281951,</t>
+  </si>
+  <si>
+    <t>36.52254602873313,</t>
+  </si>
+  <si>
+    <t>36.53349932528396,</t>
+  </si>
+  <si>
+    <t>36.50610235134442,</t>
+  </si>
+  <si>
+    <t>36.44654239669622,</t>
+  </si>
+  <si>
+    <t>36.34227368992402,</t>
+  </si>
+  <si>
+    <t>36.20084207027523,</t>
+  </si>
+  <si>
+    <t>36.0362796856753,</t>
+  </si>
+  <si>
+    <t>35.844050841869816,</t>
+  </si>
+  <si>
+    <t>35.61468558198228,</t>
+  </si>
+  <si>
+    <t>35.30222615360789,</t>
+  </si>
+  <si>
+    <t>34.88050076908176,</t>
+  </si>
+  <si>
+    <t>34.48478405766703,</t>
+  </si>
+  <si>
+    <t>34.34967661804163,</t>
+  </si>
+  <si>
+    <t>34.21461682123484,</t>
+  </si>
+  <si>
+    <t>34.12872355406477,</t>
+  </si>
+  <si>
+    <t>34.034043727215604,</t>
+  </si>
+  <si>
+    <t>33.899625710271714,</t>
+  </si>
+  <si>
+    <t>33.71449399803143,</t>
+  </si>
+  <si>
+    <t>33.45391773756445,</t>
+  </si>
+  <si>
+    <t>33.06733473149416,</t>
+  </si>
+  <si>
+    <t>32.76307080658771,</t>
+  </si>
+  <si>
+    <t>32.46930866685569,</t>
+  </si>
+  <si>
+    <t>32.218687301423664,</t>
+  </si>
+  <si>
+    <t>32.20330315527605,</t>
+  </si>
+  <si>
+    <t>32.174181858336404,</t>
+  </si>
+  <si>
+    <t>32.1228688103568,</t>
+  </si>
+  <si>
+    <t>32.03691529175988,</t>
+  </si>
+  <si>
+    <t>31.860158877760586,</t>
+  </si>
+  <si>
+    <t>31.60600535173233,</t>
+  </si>
+  <si>
+    <t>31.3139454710883,</t>
+  </si>
+  <si>
+    <t>30.986181082363846,</t>
+  </si>
+  <si>
+    <t>30.618134215216145,</t>
+  </si>
+  <si>
+    <t>30.34368619494999,</t>
+  </si>
+  <si>
+    <t>30.26766941773371,</t>
+  </si>
+  <si>
+    <t>30.196306392634582,</t>
+  </si>
+  <si>
+    <t>30.065550953596304,</t>
+  </si>
+  <si>
+    <t>29.87035165334506,</t>
+  </si>
+  <si>
+    <t>29.642613531369264,</t>
+  </si>
+  <si>
+    <t>29.40123742229354,</t>
+  </si>
+  <si>
+    <t>29.13907611824668,</t>
+  </si>
+  <si>
+    <t>28.844972735101326,</t>
+  </si>
+  <si>
+    <t>28.518273695898657,</t>
+  </si>
+  <si>
+    <t>28.186998604179003,</t>
+  </si>
+  <si>
+    <t>27.95143646261128,</t>
+  </si>
+  <si>
+    <t>27.72785803879995,</t>
+  </si>
+  <si>
+    <t>27.513580098528813,</t>
+  </si>
+  <si>
+    <t>27.304252913757306,</t>
+  </si>
+  <si>
+    <t>26.985883131469986,</t>
+  </si>
+  <si>
+    <t>26.66570095515786,</t>
+  </si>
+  <si>
+    <t>26.339401114749204,</t>
+  </si>
+  <si>
+    <t>25.96023885882155,</t>
+  </si>
+  <si>
+    <t>25.52013259199439,</t>
+  </si>
+  <si>
+    <t>25.114447867173798,</t>
+  </si>
+  <si>
+    <t>24.73839209054768,</t>
+  </si>
+  <si>
+    <t>24.387560272076954,</t>
+  </si>
+  <si>
+    <t>24.095003463843327,</t>
+  </si>
+  <si>
+    <t>23.846499097890057,</t>
+  </si>
+  <si>
+    <t>23.548984592760217,</t>
+  </si>
+  <si>
+    <t>23.22414778332743,</t>
+  </si>
+  <si>
+    <t>22.935712953180804,</t>
+  </si>
+  <si>
+    <t>22.670222291652426,</t>
+  </si>
+  <si>
+    <t>22.411547159728435,</t>
+  </si>
+  <si>
+    <t>22.149003246977163,</t>
+  </si>
+  <si>
+    <t>21.878135017845544,</t>
+  </si>
+  <si>
+    <t>21.55694941095546,</t>
+  </si>
+  <si>
+    <t>21.19555433005279,</t>
+  </si>
+  <si>
+    <t>20.871865765989796,</t>
+  </si>
+  <si>
+    <t>20.59654761851322,</t>
+  </si>
+  <si>
+    <t>20.40246170093771,</t>
+  </si>
+  <si>
+    <t>20.165110327864337,</t>
+  </si>
+  <si>
+    <t>19.94063550175969,</t>
+  </si>
+  <si>
+    <t>19.705789198782462,</t>
+  </si>
+  <si>
+    <t>19.411555669680794,</t>
+  </si>
+  <si>
+    <t>19.13649342807194,</t>
+  </si>
+  <si>
+    <t>18.891046887685082,</t>
+  </si>
+  <si>
+    <t>18.661763356042716,</t>
+  </si>
+  <si>
+    <t>18.440093754895717,</t>
+  </si>
+  <si>
+    <t>18.21645389118854,</t>
+  </si>
+  <si>
+    <t>17.988635699169897,</t>
+  </si>
+  <si>
+    <t>17.731112832477063,</t>
+  </si>
+  <si>
+    <t>17.530747663566217,</t>
+  </si>
+  <si>
+    <t>17.334200316607998,</t>
+  </si>
+  <si>
+    <t>17.0893793148045,</t>
+  </si>
+  <si>
+    <t>16.876622545120973,</t>
+  </si>
+  <si>
+    <t>16.676603704359515,</t>
+  </si>
+  <si>
+    <t>16.480587216958963,</t>
+  </si>
+  <si>
+    <t>16.272689535292443,</t>
+  </si>
+  <si>
+    <t>16.01462672770654,</t>
+  </si>
+  <si>
+    <t>15.787183963271584,</t>
+  </si>
+  <si>
+    <t>15.591629624017713,</t>
+  </si>
+  <si>
+    <t>15.413234864770255,</t>
+  </si>
+  <si>
+    <t>15.250355939817046,</t>
+  </si>
+  <si>
+    <t>15.11933349273925,</t>
+  </si>
+  <si>
+    <t>15.063009747595533,</t>
+  </si>
+  <si>
+    <t>14.856362747543537,</t>
+  </si>
+  <si>
+    <t>14.617904845896316,</t>
+  </si>
+  <si>
+    <t>14.374402919682923,</t>
+  </si>
+  <si>
+    <t>14.17463011602348,</t>
+  </si>
+  <si>
+    <t>13.998687177357535,</t>
+  </si>
+  <si>
+    <t>13.833756391506911,</t>
+  </si>
+  <si>
+    <t>13.67599758370361,</t>
+  </si>
+  <si>
+    <t>13.52537292374642,</t>
+  </si>
+  <si>
+    <t>13.360335786906987,</t>
+  </si>
+  <si>
+    <t>4.376205746495179,</t>
+  </si>
+  <si>
+    <t>4.48072418027103,</t>
+  </si>
+  <si>
+    <t>4.571467692151999,</t>
+  </si>
+  <si>
+    <t>4.6631909611803755,</t>
+  </si>
+  <si>
+    <t>4.744086092226248,</t>
+  </si>
+  <si>
+    <t>4.951833845979449,</t>
+  </si>
+  <si>
+    <t>5.290859359973845,</t>
+  </si>
+  <si>
+    <t>5.239486315592378,</t>
+  </si>
+  <si>
+    <t>4.531091988081536,</t>
+  </si>
+  <si>
+    <t>4.125950203840796,</t>
+  </si>
+  <si>
+    <t>4.15423499112302,</t>
+  </si>
+  <si>
+    <t>4.2327733152471545,</t>
+  </si>
+  <si>
+    <t>4.28634963799533,</t>
+  </si>
+  <si>
+    <t>4.414813698273686,</t>
+  </si>
+  <si>
+    <t>4.841421500878941,</t>
+  </si>
+  <si>
+    <t>4.9564224353989506,</t>
+  </si>
+  <si>
+    <t>4.960838298435367,</t>
+  </si>
+  <si>
+    <t>4.926456492787082,</t>
+  </si>
+  <si>
+    <t>4.787052098869557,</t>
+  </si>
+  <si>
+    <t>3.9135006790394766,</t>
+  </si>
+  <si>
+    <t>3.5433344018671917,</t>
+  </si>
+  <si>
+    <t>3.4648605475864502,</t>
+  </si>
+  <si>
+    <t>3.7009969432738883,</t>
+  </si>
+  <si>
+    <t>4.101013239791289,</t>
+  </si>
+  <si>
+    <t>4.140575943196295,</t>
+  </si>
+  <si>
+    <t>4.15200119692442,</t>
+  </si>
+  <si>
+    <t>4.167800300151895,</t>
+  </si>
+  <si>
+    <t>4.122835351467665,</t>
+  </si>
+  <si>
+    <t>3.9415701650336477,</t>
+  </si>
+  <si>
+    <t>3.9369841041551177,</t>
+  </si>
+  <si>
+    <t>2.9594655233699068,</t>
+  </si>
+  <si>
+    <t>3.3235490469638767,</t>
+  </si>
+  <si>
+    <t>4.226357619614507,</t>
+  </si>
+  <si>
+    <t>4.424540189121448,</t>
+  </si>
+  <si>
+    <t>4.538360295007643,</t>
+  </si>
+  <si>
+    <t>4.61350015113173,</t>
+  </si>
+  <si>
+    <t>4.647019139881721,</t>
+  </si>
+  <si>
+    <t>4.660794961873576,</t>
+  </si>
+  <si>
+    <t>4.5766456630032755,</t>
+  </si>
+  <si>
+    <t>4.410410990806571,</t>
+  </si>
+  <si>
+    <t>3.739220627592028,</t>
+  </si>
+  <si>
+    <t>4.097321151729574,</t>
+  </si>
+  <si>
+    <t>4.455433090877872,</t>
+  </si>
+  <si>
+    <t>4.602850464530739,</t>
+  </si>
+  <si>
+    <t>4.6648433424293865,</t>
+  </si>
+  <si>
+    <t>4.706176766776577,</t>
+  </si>
+  <si>
+    <t>4.699772952105941,</t>
+  </si>
+  <si>
+    <t>4.67929093434513,</t>
+  </si>
+  <si>
+    <t>4.5683900730416385,</t>
+  </si>
+  <si>
+    <t>4.396465822168548,</t>
+  </si>
+  <si>
+    <t>3.8644961994335048,</t>
+  </si>
+  <si>
+    <t>4.39660528884528,</t>
+  </si>
+  <si>
+    <t>4.568638249735587,</t>
+  </si>
+  <si>
+    <t>4.679664535020233,</t>
+  </si>
+  <si>
+    <t>4.700270072007515,</t>
+  </si>
+  <si>
+    <t>4.706771465300639,</t>
+  </si>
+  <si>
+    <t>4.665541490482311,</t>
+  </si>
+  <si>
+    <t>4.603718656168876,</t>
+  </si>
+  <si>
+    <t>4.456458956526495,</t>
+  </si>
+  <si>
+    <t>4.137306280504599,</t>
+  </si>
+  <si>
+    <t>3.740593240492579,</t>
+  </si>
+  <si>
+    <t>4.412110880398428,</t>
+  </si>
+  <si>
+    <t>4.578392936498777,</t>
+  </si>
+  <si>
+    <t>4.662631654278531,</t>
+  </si>
+  <si>
+    <t>4.648916124471495,</t>
+  </si>
+  <si>
+    <t>4.615605869959278,</t>
+  </si>
+  <si>
+    <t>4.540736919965601,</t>
+  </si>
+  <si>
+    <t>4.427097305786747,</t>
+  </si>
+  <si>
+    <t>4.22919745101461,</t>
+  </si>
+  <si>
+    <t>3.334918232283799,</t>
+  </si>
+  <si>
+    <t>2.9689603950938235,</t>
+  </si>
+  <si>
+    <t>3.9442371650923596,</t>
+  </si>
+  <si>
+    <t>3.9446898089124067,</t>
+  </si>
+  <si>
+    <t>4.123962396921815,</t>
+  </si>
+  <si>
+    <t>4.169818877347142,</t>
+  </si>
+  <si>
+    <t>4.15323252958602,</t>
+  </si>
+  <si>
+    <t>4.140252873583694,</t>
+  </si>
+  <si>
+    <t>4.099673276874821,</t>
+  </si>
+  <si>
+    <t>3.698297884814265,</t>
+  </si>
+  <si>
+    <t>3.463577063369738,</t>
+  </si>
+  <si>
+    <t>3.5410647119284566,</t>
+  </si>
+  <si>
+    <t>3.915204066446345,</t>
+  </si>
+  <si>
+    <t>4.787910373140627,</t>
+  </si>
+  <si>
+    <t>4.9311671630272,</t>
+  </si>
+  <si>
+    <t>4.964339500737042,</t>
+  </si>
+  <si>
+    <t>4.958380041360954,</t>
+  </si>
+  <si>
+    <t>4.842580663574265,</t>
+  </si>
+  <si>
+    <t>4.41533691542156,</t>
+  </si>
+  <si>
+    <t>4.288074863090642,</t>
+  </si>
+  <si>
+    <t>4.2344554915348525,</t>
+  </si>
+  <si>
+    <t>4.156184190879,</t>
+  </si>
+  <si>
+    <t>4.129300018100744,</t>
+  </si>
+  <si>
+    <t>4.538327323787538,</t>
+  </si>
+  <si>
+    <t>5.243000987543129,</t>
+  </si>
+  <si>
+    <t>5.293925109353526,</t>
+  </si>
+  <si>
+    <t>4.958310641657805,</t>
+  </si>
+  <si>
+    <t>4.748883602741111,</t>
+  </si>
+  <si>
+    <t>4.666662460281881,</t>
+  </si>
+  <si>
+    <t>4.5733165454077795,</t>
+  </si>
+  <si>
+    <t>4.48201766415166,</t>
+  </si>
+  <si>
+    <t>4.377560322470132,</t>
+  </si>
+  <si>
+    <t>4.257094520729776,</t>
+  </si>
+  <si>
+    <t>4.306516323439157,</t>
+  </si>
+  <si>
+    <t>4.596306097173037,</t>
+  </si>
+  <si>
+    <t>5.0739722696212395,</t>
+  </si>
+  <si>
+    <t>5.101077545019288,</t>
+  </si>
+  <si>
+    <t>5.049740835294503,</t>
+  </si>
+  <si>
+    <t>4.8450152096135275,</t>
+  </si>
+  <si>
+    <t>4.69957603283367,</t>
+  </si>
+  <si>
+    <t>4.56449522929042,</t>
+  </si>
+  <si>
+    <t>4.448458410374541,</t>
+  </si>
+  <si>
+    <t>4.094624558199829,</t>
+  </si>
+  <si>
+    <t>3.9730184321895274,</t>
+  </si>
+  <si>
+    <t>4.081631887367745,</t>
+  </si>
+  <si>
+    <t>5.158907672001194,</t>
+  </si>
+  <si>
+    <t>5.171359597648554,</t>
+  </si>
+  <si>
+    <t>5.151475787557541,</t>
+  </si>
+  <si>
+    <t>5.081722610282928,</t>
+  </si>
+  <si>
+    <t>4.602922741840737,</t>
+  </si>
+  <si>
+    <t>4.392812201722998,</t>
+  </si>
+  <si>
+    <t>4.240153502955015,</t>
+  </si>
+  <si>
+    <t>4.130538007663293,</t>
+  </si>
+  <si>
+    <t>4.012568728250722,</t>
+  </si>
+  <si>
+    <t>3.897919865231177,</t>
+  </si>
+  <si>
+    <t>4.008336478636067,</t>
+  </si>
+  <si>
+    <t>4.948327825137431,</t>
+  </si>
+  <si>
+    <t>4.915798568549467,</t>
+  </si>
+  <si>
+    <t>4.871817553080939,</t>
+  </si>
+  <si>
+    <t>4.710439866181364,</t>
+  </si>
+  <si>
+    <t>4.424091920154365,</t>
+  </si>
+  <si>
+    <t>4.25104368401769,</t>
+  </si>
+  <si>
+    <t>4.0272094130326686,</t>
+  </si>
+  <si>
+    <t>3.82712020913305,</t>
+  </si>
+  <si>
+    <t>3.6741331817053,</t>
+  </si>
+  <si>
+    <t>3.4932542672762366,</t>
+  </si>
+  <si>
+    <t>3.577688363349518,</t>
+  </si>
+  <si>
+    <t>4.837908075705625,</t>
+  </si>
+  <si>
+    <t>4.809950395750172,</t>
+  </si>
+  <si>
+    <t>4.406069644190648,</t>
+  </si>
+  <si>
+    <t>4.16182351470418,</t>
+  </si>
+  <si>
+    <t>3.922216446859454,</t>
+  </si>
+  <si>
+    <t>3.837825097441092,</t>
+  </si>
+  <si>
+    <t>3.773342970745647,</t>
+  </si>
+  <si>
+    <t>3.6752043161887045,</t>
+  </si>
+  <si>
+    <t>3.2600655651398136,</t>
+  </si>
+  <si>
+    <t>2.9997446832932915,</t>
+  </si>
+  <si>
+    <t>2.9847043808989464,</t>
+  </si>
+  <si>
+    <t>4.237633110564345,</t>
+  </si>
+  <si>
+    <t>4.049508103793348,</t>
+  </si>
+  <si>
+    <t>3.9617749837378278,</t>
+  </si>
+  <si>
+    <t>3.686202744249408,</t>
+  </si>
+  <si>
+    <t>3.4878300666280473,</t>
+  </si>
+  <si>
+    <t>3.362408372291355,</t>
+  </si>
+  <si>
+    <t>3.193753907058278,</t>
+  </si>
+  <si>
+    <t>3.0037054916492116,</t>
+  </si>
+  <si>
+    <t>3.0289874981733376,</t>
+  </si>
+  <si>
+    <t>2.4858160082275536,</t>
+  </si>
+  <si>
+    <t>2.167381564268687,</t>
+  </si>
+  <si>
+    <t>2.4627109259940463,</t>
+  </si>
+  <si>
+    <t>3.326661062282232,</t>
+  </si>
+  <si>
+    <t>2.9041067843824155,</t>
+  </si>
+  <si>
+    <t>4.750043923158339,</t>
+  </si>
+  <si>
+    <t>4.724855723913988,</t>
+  </si>
+  <si>
+    <t>4.277448820733153,</t>
+  </si>
+  <si>
+    <t>3.9147690953783854,</t>
+  </si>
+  <si>
+    <t>3.021910706757097,</t>
+  </si>
+  <si>
+    <t>1.151754350164968,</t>
+  </si>
+  <si>
+    <t>5.1597499242280565,</t>
+  </si>
+  <si>
+    <t>4.9292981212005795,</t>
+  </si>
+  <si>
+    <t>6.565180595843407,</t>
+  </si>
+  <si>
+    <t>6.611129115160106,</t>
+  </si>
+  <si>
+    <t>6.530479185796846,</t>
+  </si>
+  <si>
+    <t>6.373140148148465,</t>
+  </si>
+  <si>
+    <t>6.126417918675822,</t>
+  </si>
+  <si>
+    <t>5.576788579615919,</t>
+  </si>
+  <si>
+    <t>5.1608975510515505,</t>
+  </si>
+  <si>
+    <t>4.746948785453401,</t>
+  </si>
+  <si>
+    <t>4.175455244846745,</t>
+  </si>
+  <si>
+    <t>5.289439674864008,</t>
+  </si>
+  <si>
+    <t>5.412090915239864,</t>
+  </si>
+  <si>
+    <t>6.699141653305502,</t>
+  </si>
+  <si>
+    <t>6.430120694905523,</t>
+  </si>
+  <si>
+    <t>5.961309504745984,</t>
+  </si>
+  <si>
+    <t>5.614187138199018,</t>
+  </si>
+  <si>
+    <t>5.3789747381743105,</t>
+  </si>
+  <si>
+    <t>5.176955052083012,</t>
+  </si>
+  <si>
+    <t>4.912650067498083,</t>
+  </si>
+  <si>
+    <t>4.576710607544455,</t>
+  </si>
+  <si>
+    <t>4.295799387189981,</t>
+  </si>
+  <si>
+    <t>4.156471041925167,</t>
+  </si>
+  <si>
+    <t>5.324345022076744,</t>
+  </si>
+  <si>
+    <t>5.257346370545122,</t>
+  </si>
+  <si>
+    <t>5.2424281187561235,</t>
+  </si>
+  <si>
+    <t>5.1636592394036835,</t>
+  </si>
+  <si>
+    <t>-1.2750943078515489,</t>
+  </si>
+  <si>
+    <t>-1.1878148112269182,</t>
+  </si>
+  <si>
+    <t>-1.1492329399968004,</t>
+  </si>
+  <si>
+    <t>-1.8633177060271082,</t>
+  </si>
+  <si>
+    <t>-1.748226739545731,</t>
+  </si>
+  <si>
+    <t>-1.2798209428858904,</t>
+  </si>
+  <si>
+    <t>-1.0613830681400336,</t>
+  </si>
+  <si>
+    <t>-0.7720953863098325,</t>
+  </si>
+  <si>
+    <t>0.06985108746992724,</t>
+  </si>
+  <si>
+    <t>0.4685611476727018,</t>
+  </si>
+  <si>
+    <t>-0.16367719612872647,</t>
+  </si>
+  <si>
+    <t>0.12453173060905323,</t>
+  </si>
+  <si>
+    <t>0.4356476609958882,</t>
+  </si>
+  <si>
+    <t>0.5853910124539664,</t>
+  </si>
+  <si>
+    <t>0.5518644038900977,</t>
+  </si>
+  <si>
+    <t>0.4851856398261184,</t>
+  </si>
+  <si>
+    <t>0.37280371715578686,</t>
+  </si>
+  <si>
+    <t>-0.3451911337443812,</t>
+  </si>
+  <si>
+    <t>-0.2707919294132735,</t>
+  </si>
+  <si>
+    <t>0.05756345973574835,</t>
+  </si>
+  <si>
+    <t>0.5587407376669844,</t>
+  </si>
+  <si>
+    <t>0.9312321752419265,</t>
+  </si>
+  <si>
+    <t>1.0358479467132475,</t>
+  </si>
+  <si>
+    <t>1.138387184921916,</t>
+  </si>
+  <si>
+    <t>0.5895832888573848,</t>
+  </si>
+  <si>
+    <t>0.2595845452711069,</t>
+  </si>
+  <si>
+    <t>0.5954819710140644,</t>
+  </si>
+  <si>
+    <t>0.7484112968187834,</t>
+  </si>
+  <si>
+    <t>0.8969679706029889,</t>
+  </si>
+  <si>
+    <t>0.8203882415933634,</t>
+  </si>
+  <si>
+    <t>0.6939846146098629,</t>
+  </si>
+  <si>
+    <t>0.3930199842665427,</t>
+  </si>
+  <si>
+    <t>0.11277423772918067,</t>
+  </si>
+  <si>
+    <t>1.4006139441891021,</t>
+  </si>
+  <si>
+    <t>0.09929934709906763,</t>
+  </si>
+  <si>
+    <t>0.6512837851228438,</t>
+  </si>
+  <si>
+    <t>0.7790591217293659,</t>
+  </si>
+  <si>
+    <t>0.7859648438315092,</t>
+  </si>
+  <si>
+    <t>0.7099368265591491,</t>
+  </si>
+  <si>
+    <t>-0.010450106794728886,</t>
+  </si>
+  <si>
+    <t>-0.259172218162202,</t>
+  </si>
+  <si>
+    <t>0.31346456646359616,</t>
+  </si>
+  <si>
+    <t>0.5355553718722075,</t>
+  </si>
+  <si>
+    <t>0.6469072909922751,</t>
+  </si>
+  <si>
+    <t>0.8438426314253172,</t>
+  </si>
+  <si>
+    <t>1.4796545319668695,</t>
+  </si>
+  <si>
+    <t>2.95919302457674,</t>
+  </si>
+  <si>
+    <t>0.02875540759733038,</t>
+  </si>
+  <si>
+    <t>-1.1404506397437186,</t>
+  </si>
+  <si>
+    <t>-0.32053216607680735,</t>
+  </si>
+  <si>
+    <t>0.11776064774768555,</t>
+  </si>
+  <si>
+    <t>0.30250278475393216,</t>
+  </si>
+  <si>
+    <t>0.33246754101890474,</t>
+  </si>
+  <si>
+    <t>0.38505911950993316,</t>
+  </si>
+  <si>
+    <t>0.36724450196136915,</t>
+  </si>
+  <si>
+    <t>-0.28962990951392653,</t>
+  </si>
+  <si>
+    <t>NACA 4412</t>
+  </si>
+  <si>
+    <t>-6.191136528886373,</t>
+  </si>
+  <si>
+    <t>-5.2126175443285865,</t>
+  </si>
+  <si>
+    <t>-4.201301310028843,</t>
+  </si>
+  <si>
+    <t>-3.147413277333084,</t>
+  </si>
+  <si>
+    <t>-2.0979244171234788,</t>
+  </si>
+  <si>
+    <t>-1.0925785911175798,</t>
+  </si>
+  <si>
+    <t>-0.0355732509014559,</t>
+  </si>
+  <si>
+    <t>1.062264879981827,</t>
+  </si>
+  <si>
+    <t>2.2049545354807023,</t>
+  </si>
+  <si>
+    <t>3.3445365893037207,</t>
+  </si>
+  <si>
+    <t>4.452372444570952,</t>
+  </si>
+  <si>
+    <t>5.601535186806856,</t>
+  </si>
+  <si>
+    <t>6.793550772116525,</t>
+  </si>
+  <si>
+    <t>8.027574421627726,</t>
+  </si>
+  <si>
+    <t>9.237224895809392,</t>
+  </si>
+  <si>
+    <t>10.447205104720567,</t>
+  </si>
+  <si>
+    <t>11.694016390855413,</t>
+  </si>
+  <si>
+    <t>12.972303115739825,</t>
+  </si>
+  <si>
+    <t>14.252120437990477,</t>
+  </si>
+  <si>
+    <t>15.523020252464198,</t>
+  </si>
+  <si>
+    <t>16.824821189497168,</t>
+  </si>
+  <si>
+    <t>18.150208230234135,</t>
+  </si>
+  <si>
+    <t>19.483464666178943,</t>
+  </si>
+  <si>
+    <t>20.827353798908376,</t>
+  </si>
+  <si>
+    <t>22.23693587950323,</t>
+  </si>
+  <si>
+    <t>23.640020819755993,</t>
+  </si>
+  <si>
+    <t>25.026355618042157,</t>
+  </si>
+  <si>
+    <t>26.427886050339485,</t>
+  </si>
+  <si>
+    <t>27.839658597266336,</t>
+  </si>
+  <si>
+    <t>29.254165714504687,</t>
+  </si>
+  <si>
+    <t>30.7036548151526,</t>
+  </si>
+  <si>
+    <t>32.15364688110059,</t>
+  </si>
+  <si>
+    <t>33.588206089738215,</t>
+  </si>
+  <si>
+    <t>35.02061604721193,</t>
+  </si>
+  <si>
+    <t>36.49262295598125,</t>
+  </si>
+  <si>
+    <t>37.93128083608511,</t>
+  </si>
+  <si>
+    <t>39.455089241062765,</t>
+  </si>
+  <si>
+    <t>41.18355030873085,</t>
+  </si>
+  <si>
+    <t>42.96901146368399,</t>
+  </si>
+  <si>
+    <t>44.66667278128207,</t>
+  </si>
+  <si>
+    <t>46.29901756867282,</t>
+  </si>
+  <si>
+    <t>48.008693486611755,</t>
+  </si>
+  <si>
+    <t>49.73058587228404,</t>
+  </si>
+  <si>
+    <t>51.66818170972535,</t>
+  </si>
+  <si>
+    <t>53.87785842661079,</t>
+  </si>
+  <si>
+    <t>56.14492135722361,</t>
+  </si>
+  <si>
+    <t>58.49455692557962,</t>
+  </si>
+  <si>
+    <t>60.94129075290787,</t>
+  </si>
+  <si>
+    <t>63.259472705439784,</t>
+  </si>
+  <si>
+    <t>65.62367303431483,</t>
+  </si>
+  <si>
+    <t>68.09306897427207,</t>
+  </si>
+  <si>
+    <t>70.20827892196328,</t>
+  </si>
+  <si>
+    <t>72.08256726065939,</t>
+  </si>
+  <si>
+    <t>74.81856904289019,</t>
+  </si>
+  <si>
+    <t>77.44565183072454,</t>
+  </si>
+  <si>
+    <t>79.94914295310703,</t>
+  </si>
+  <si>
+    <t>81.3155731763209,</t>
+  </si>
+  <si>
+    <t>82.12960308223781,</t>
+  </si>
+  <si>
+    <t>82.97868178090548,</t>
+  </si>
+  <si>
+    <t>83.9890862718044,</t>
+  </si>
+  <si>
+    <t>84.75244907098343,</t>
+  </si>
+  <si>
+    <t>85.48146744547358,</t>
+  </si>
+  <si>
+    <t>86.47058407856093,</t>
+  </si>
+  <si>
+    <t>87.21847903608808,</t>
+  </si>
+  <si>
+    <t>87.76053742821878,</t>
+  </si>
+  <si>
+    <t>88.76834222711359,</t>
+  </si>
+  <si>
+    <t>89.53140975771127,</t>
+  </si>
+  <si>
+    <t>90.05036117114662,</t>
+  </si>
+  <si>
+    <t>90.86095445165334,</t>
+  </si>
+  <si>
+    <t>91.67978295134357,</t>
+  </si>
+  <si>
+    <t>92.27300160082153,</t>
+  </si>
+  <si>
+    <t>92.68491882969971,</t>
+  </si>
+  <si>
+    <t>93.61594091655141,</t>
+  </si>
+  <si>
+    <t>94.32046129133961,</t>
+  </si>
+  <si>
+    <t>94.80243405354412,</t>
+  </si>
+  <si>
+    <t>95.24467645444119,</t>
+  </si>
+  <si>
+    <t>96.10016229966386,</t>
+  </si>
+  <si>
+    <t>96.74610976588738,</t>
+  </si>
+  <si>
+    <t>97.17869322600723,</t>
+  </si>
+  <si>
+    <t>97.48898267033655,</t>
+  </si>
+  <si>
+    <t>98.33637433671852,</t>
+  </si>
+  <si>
+    <t>98.96900918836597,</t>
+  </si>
+  <si>
+    <t>99.39755460065018,</t>
+  </si>
+  <si>
+    <t>99.59356115907356,</t>
+  </si>
+  <si>
+    <t>100.31694452675536,</t>
+  </si>
+  <si>
+    <t>100.9671944245717,</t>
+  </si>
+  <si>
+    <t>101.41970540529465,</t>
+  </si>
+  <si>
+    <t>101.64643358861296,</t>
+  </si>
+  <si>
+    <t>102.01024612875862,</t>
+  </si>
+  <si>
+    <t>102.72041998008575,</t>
+  </si>
+  <si>
+    <t>103.18230467059965,</t>
+  </si>
+  <si>
+    <t>102.96056668187268,</t>
+  </si>
+  <si>
+    <t>103.58306624380263,</t>
+  </si>
+  <si>
+    <t>103.40283900041372,</t>
+  </si>
+  <si>
+    <t>103.53184445321652,</t>
+  </si>
+  <si>
+    <t>103.58852940810316,</t>
+  </si>
+  <si>
+    <t>103.99367528554632,</t>
+  </si>
+  <si>
+    <t>104.016066739043,</t>
+  </si>
+  <si>
+    <t>104.23790824086281,</t>
+  </si>
+  <si>
+    <t>104.48316802786218,</t>
+  </si>
+  <si>
+    <t>104.12883228563236,</t>
+  </si>
+  <si>
+    <t>103.47748549700067,</t>
+  </si>
+  <si>
+    <t>102.84348231103439,</t>
+  </si>
+  <si>
+    <t>102.33786374340474,</t>
+  </si>
+  <si>
+    <t>102.0077900891952,</t>
+  </si>
+  <si>
+    <t>101.40848533269896,</t>
+  </si>
+  <si>
+    <t>100.59321029133304,</t>
+  </si>
+  <si>
+    <t>99.61053489160842,</t>
+  </si>
+  <si>
+    <t>98.50571812116233,</t>
+  </si>
+  <si>
+    <t>97.31395052892792,</t>
+  </si>
+  <si>
+    <t>96.00308605921744,</t>
+  </si>
+  <si>
+    <t>94.52579534232258,</t>
+  </si>
+  <si>
+    <t>93.11467856589813,</t>
+  </si>
+  <si>
+    <t>91.11593349134844,</t>
+  </si>
+  <si>
+    <t>88.24996404234669,</t>
+  </si>
+  <si>
+    <t>85.12950323581126,</t>
+  </si>
+  <si>
+    <t>82.67270874808123,</t>
+  </si>
+  <si>
+    <t>81.13820862292638,</t>
+  </si>
+  <si>
+    <t>79.85471294961464,</t>
+  </si>
+  <si>
+    <t>78.63197172469961,</t>
+  </si>
+  <si>
+    <t>77.51974646353271,</t>
+  </si>
+  <si>
+    <t>76.52316556635759,</t>
+  </si>
+  <si>
+    <t>75.58629775929074,</t>
+  </si>
+  <si>
+    <t>74.76701609606778,</t>
+  </si>
+  <si>
+    <t>73.99085434128635,</t>
+  </si>
+  <si>
+    <t>73.28802694664904,</t>
+  </si>
+  <si>
+    <t>72.64724063741414,</t>
+  </si>
+  <si>
+    <t>72.04381355901485,</t>
+  </si>
+  <si>
+    <t>71.43766280866767,</t>
+  </si>
+  <si>
+    <t>70.62155748059057,</t>
+  </si>
+  <si>
+    <t>69.6914961049841,</t>
+  </si>
+  <si>
+    <t>68.84667541397317,</t>
+  </si>
+  <si>
+    <t>68.25959272884342,</t>
+  </si>
+  <si>
+    <t>67.72689256961282,</t>
+  </si>
+  <si>
+    <t>67.21964897405083,</t>
+  </si>
+  <si>
+    <t>66.70765527765799,</t>
+  </si>
+  <si>
+    <t>66.27663135576366,</t>
+  </si>
+  <si>
+    <t>65.80789038197466,</t>
+  </si>
+  <si>
+    <t>65.3662046321698,</t>
+  </si>
+  <si>
+    <t>64.95582965542606,</t>
+  </si>
+  <si>
+    <t>64.50436495237706,</t>
+  </si>
+  <si>
+    <t>64.05323858323678,</t>
+  </si>
+  <si>
+    <t>63.652719774385005,</t>
+  </si>
+  <si>
+    <t>63.15292835154605,</t>
+  </si>
+  <si>
+    <t>62.574439602317355,</t>
+  </si>
+  <si>
+    <t>61.414082927993,</t>
+  </si>
+  <si>
+    <t>59.861550178986256,</t>
+  </si>
+  <si>
+    <t>59.18492628456443,</t>
+  </si>
+  <si>
+    <t>58.55329850226507,</t>
+  </si>
+  <si>
+    <t>57.95692383126008,</t>
+  </si>
+  <si>
+    <t>57.39211225469548,</t>
+  </si>
+  <si>
+    <t>56.808627891931216,</t>
+  </si>
+  <si>
+    <t>56.22409428702661,</t>
+  </si>
+  <si>
+    <t>55.636334208289405,</t>
+  </si>
+  <si>
+    <t>55.02994352616994,</t>
+  </si>
+  <si>
+    <t>54.41641329738418,</t>
+  </si>
+  <si>
+    <t>53.79946320556812,</t>
+  </si>
+  <si>
+    <t>53.164968039550395,</t>
+  </si>
+  <si>
+    <t>52.522056492081994,</t>
+  </si>
+  <si>
+    <t>51.87526915445237,</t>
+  </si>
+  <si>
+    <t>51.2109049246181,</t>
+  </si>
+  <si>
+    <t>50.54109822410483,</t>
+  </si>
+  <si>
+    <t>49.86904209431314,</t>
+  </si>
+  <si>
+    <t>49.180023944446454,</t>
+  </si>
+  <si>
+    <t>48.48851182514328,</t>
+  </si>
+  <si>
+    <t>47.79194910939093,</t>
+  </si>
+  <si>
+    <t>47.08325750229854,</t>
+  </si>
+  <si>
+    <t>46.37840732050008,</t>
+  </si>
+  <si>
+    <t>45.66163032790828,</t>
+  </si>
+  <si>
+    <t>44.94185326905749,</t>
+  </si>
+  <si>
+    <t>44.22417163677911,</t>
+  </si>
+  <si>
+    <t>43.49520922126388,</t>
+  </si>
+  <si>
+    <t>42.774123955111676,</t>
+  </si>
+  <si>
+    <t>42.044535825338905,</t>
+  </si>
+  <si>
+    <t>41.31786710459812,</t>
+  </si>
+  <si>
+    <t>40.593972569188885,</t>
+  </si>
+  <si>
+    <t>39.864110585885186,</t>
+  </si>
+  <si>
+    <t>39.145661727573206,</t>
+  </si>
+  <si>
+    <t>38.419901498263926,</t>
+  </si>
+  <si>
+    <t>37.70735512731952,</t>
+  </si>
+  <si>
+    <t>36.990221264257045,</t>
+  </si>
+  <si>
+    <t>36.28318487520912,</t>
+  </si>
+  <si>
+    <t>35.579326351223045,</t>
+  </si>
+  <si>
+    <t>34.880008209997044,</t>
+  </si>
+  <si>
+    <t>34.19124975926717,</t>
+  </si>
+  <si>
+    <t>33.50324690177402,</t>
+  </si>
+  <si>
+    <t>32.830849026963214,</t>
+  </si>
+  <si>
+    <t>32.156955136971874,</t>
+  </si>
+  <si>
+    <t>31.501992819052784,</t>
+  </si>
+  <si>
+    <t>30.84529682586382,</t>
+  </si>
+  <si>
+    <t>30.208811186219002,</t>
+  </si>
+  <si>
+    <t>29.571431347298034,</t>
+  </si>
+  <si>
+    <t>28.952935649633027,</t>
+  </si>
+  <si>
+    <t>28.335693547724933,</t>
+  </si>
+  <si>
+    <t>27.73514107922326,</t>
+  </si>
+  <si>
+    <t>27.13984888900556,</t>
+  </si>
+  <si>
+    <t>26.558210982458547,</t>
+  </si>
+  <si>
+    <t>25.98662021167329,</t>
+  </si>
+  <si>
+    <t>25.424364775567557,</t>
+  </si>
+  <si>
+    <t>24.876675580543246,</t>
+  </si>
+  <si>
+    <t>24.33420076619085,</t>
+  </si>
+  <si>
+    <t>23.80959511426384,</t>
+  </si>
+  <si>
+    <t>23.2867655956748,</t>
+  </si>
+  <si>
+    <t>22.784311923937928,</t>
+  </si>
+  <si>
+    <t>22.281606430668138,</t>
+  </si>
+  <si>
+    <t>21.80017220767464,</t>
+  </si>
+  <si>
+    <t>21.318173022062155,</t>
+  </si>
+  <si>
+    <t>20.855626219873038,</t>
+  </si>
+  <si>
+    <t>20.395834753678823,</t>
+  </si>
+  <si>
+    <t>19.949244922365875,</t>
+  </si>
+  <si>
+    <t>19.51261137704373,</t>
+  </si>
+  <si>
+    <t>19.08268082403869,</t>
+  </si>
+  <si>
+    <t>18.66846450174976,</t>
+  </si>
+  <si>
+    <t>18.25533454476988,</t>
+  </si>
+  <si>
+    <t>17.861751220579087,</t>
+  </si>
+  <si>
+    <t>17.465991803348334,</t>
+  </si>
+  <si>
+    <t>17.089393048643537,</t>
+  </si>
+  <si>
+    <t>16.712911667313346,</t>
+  </si>
+  <si>
+    <t>16.349457735426885,</t>
+  </si>
+  <si>
+    <t>15.995007777440795,</t>
+  </si>
+  <si>
+    <t>15.644459221146011,</t>
+  </si>
+  <si>
+    <t>15.310685701844884,</t>
+  </si>
+  <si>
+    <t>14.974022172415722,</t>
+  </si>
+  <si>
+    <t>14.657305936303116,</t>
+  </si>
+  <si>
+    <t>14.338139417164179,</t>
+  </si>
+  <si>
+    <t>14.032688014571466,</t>
+  </si>
+  <si>
+    <t>13.734382149020615,</t>
+  </si>
+  <si>
+    <t>13.43992279791679,</t>
+  </si>
+  <si>
+    <t>13.15963549846699,</t>
+  </si>
+  <si>
+    <t>12.877908019433136,</t>
+  </si>
+  <si>
+    <t>12.61256017895531,</t>
+  </si>
+  <si>
+    <t>12.344235073870307,</t>
+  </si>
+  <si>
+    <t>12.091619224532579,</t>
+  </si>
+  <si>
+    <t>11.837565814004728,</t>
+  </si>
+  <si>
+    <t>11.596838248440047,</t>
+  </si>
+  <si>
+    <t>11.356617938712438,</t>
+  </si>
+  <si>
+    <t>11.12736390615427,</t>
+  </si>
+  <si>
+    <t>10.899982101210176,</t>
+  </si>
+  <si>
+    <t>10.681935545193086,</t>
+  </si>
+  <si>
+    <t>10.465556245984535,</t>
+  </si>
+  <si>
+    <t>10.258100204287238,</t>
+  </si>
+  <si>
+    <t>10.051724419684817,</t>
+  </si>
+  <si>
+    <t>9.854715461930706,</t>
+  </si>
+  <si>
+    <t>9.657258920527493,</t>
+  </si>
+  <si>
+    <t>9.46997489791826,</t>
+  </si>
+  <si>
+    <t>9.280826444229021,</t>
+  </si>
+  <si>
+    <t>9.101540532393438,</t>
+  </si>
+  <si>
+    <t>8.921328927533024,</t>
+  </si>
+  <si>
+    <t>8.748091068030988,</t>
+  </si>
+  <si>
+    <t>8.577528043610833,</t>
+  </si>
+  <si>
+    <t>6.175674866874952,</t>
+  </si>
+  <si>
+    <t>6.338644424970724,</t>
+  </si>
+  <si>
+    <t>6.442106632318101,</t>
+  </si>
+  <si>
+    <t>6.61805721445228,</t>
+  </si>
+  <si>
+    <t>5.896422651075829,</t>
+  </si>
+  <si>
+    <t>6.141808573779003,</t>
+  </si>
+  <si>
+    <t>6.266678965769241,</t>
+  </si>
+  <si>
+    <t>6.462649003091839,</t>
+  </si>
+  <si>
+    <t>6.570564236269237,</t>
+  </si>
+  <si>
+    <t>6.028304044615541,</t>
+  </si>
+  <si>
+    <t>6.187182475898153,</t>
+  </si>
+  <si>
+    <t>6.303657364934958,</t>
+  </si>
+  <si>
+    <t>6.4306761891174435,</t>
+  </si>
+  <si>
+    <t>6.451174538032621,</t>
+  </si>
+  <si>
+    <t>6.138530019548518,</t>
+  </si>
+  <si>
+    <t>6.280177924259195,</t>
+  </si>
+  <si>
+    <t>6.396587828600319,</t>
+  </si>
+  <si>
+    <t>6.488376803912721,</t>
+  </si>
+  <si>
+    <t>6.171786067867298,</t>
+  </si>
+  <si>
+    <t>6.268775107754071,</t>
+  </si>
+  <si>
+    <t>6.358256740926279,</t>
+  </si>
+  <si>
+    <t>6.430924634170693,</t>
+  </si>
+  <si>
+    <t>6.195042161246804,</t>
+  </si>
+  <si>
+    <t>6.24846991869553,</t>
+  </si>
+  <si>
+    <t>6.256020019585861,</t>
+  </si>
+  <si>
+    <t>6.412805398997512,</t>
+  </si>
+  <si>
+    <t>6.265025254458231,</t>
+  </si>
+  <si>
+    <t>6.296123312328412,</t>
+  </si>
+  <si>
+    <t>6.328161542162434,</t>
+  </si>
+  <si>
+    <t>6.375699063417437,</t>
+  </si>
+  <si>
+    <t>6.262726813895452,</t>
+  </si>
+  <si>
+    <t>6.272318622564951,</t>
+  </si>
+  <si>
+    <t>6.294204715869577,</t>
+  </si>
+  <si>
+    <t>6.236906473047052,</t>
+  </si>
+  <si>
+    <t>6.214084895916185,</t>
+  </si>
+  <si>
+    <t>6.309755242845922,</t>
+  </si>
+  <si>
+    <t>6.129668089338153,</t>
+  </si>
+  <si>
+    <t>5.989669295868706,</t>
+  </si>
+  <si>
+    <t>5.974800698899394,</t>
+  </si>
+  <si>
+    <t>6.211259695067618,</t>
+  </si>
+  <si>
+    <t>6.26226947875725,</t>
+  </si>
+  <si>
+    <t>6.079639487684425,</t>
+  </si>
+  <si>
+    <t>6.068563116950696,</t>
+  </si>
+  <si>
+    <t>6.0182437108213325,</t>
+  </si>
+  <si>
+    <t>5.803905656934859,</t>
+  </si>
+  <si>
+    <t>5.766762026170589,</t>
+  </si>
+  <si>
+    <t>5.6162850257058015,</t>
+  </si>
+  <si>
+    <t>5.539025411785802,</t>
+  </si>
+  <si>
+    <t>5.437624751722559,</t>
+  </si>
+  <si>
+    <t>4.926048392635349,</t>
+  </si>
+  <si>
+    <t>4.636954327071382,</t>
+  </si>
+  <si>
+    <t>3.9354006125277987,</t>
+  </si>
+  <si>
+    <t>6.837455083571461,</t>
+  </si>
+  <si>
+    <t>9.979081664983346,</t>
+  </si>
+  <si>
+    <t>12.372954650117917,</t>
+  </si>
+  <si>
+    <t>11.683134348474711,</t>
+  </si>
+  <si>
+    <t>5.779093548739927,</t>
+  </si>
+  <si>
+    <t>5.7186922072840956,</t>
+  </si>
+  <si>
+    <t>5.9537628181811035,</t>
+  </si>
+  <si>
+    <t>5.845126272175898,</t>
+  </si>
+  <si>
+    <t>5.765385275368398,</t>
+  </si>
+  <si>
+    <t>6.026424250128682,</t>
+  </si>
+  <si>
+    <t>5.9172971608138445,</t>
+  </si>
+  <si>
+    <t>5.826735000980256,</t>
+  </si>
+  <si>
+    <t>6.111532394794495,</t>
+  </si>
+  <si>
+    <t>5.990102436527446,</t>
+  </si>
+  <si>
+    <t>5.892752076087195,</t>
+  </si>
+  <si>
+    <t>5.825483109213195,</t>
+  </si>
+  <si>
+    <t>6.081440969758779,</t>
+  </si>
+  <si>
+    <t>5.975651319165623,</t>
+  </si>
+  <si>
+    <t>5.891410607178084,</t>
+  </si>
+  <si>
+    <t>6.202395772239746,</t>
+  </si>
+  <si>
+    <t>6.077961411131711,</t>
+  </si>
+  <si>
+    <t>5.978673660335012,</t>
+  </si>
+  <si>
+    <t>5.900063427050084,</t>
+  </si>
+  <si>
+    <t>6.214705886495523,</t>
+  </si>
+  <si>
+    <t>6.091866172810352,</t>
+  </si>
+  <si>
+    <t>5.995650189002792,</t>
+  </si>
+  <si>
+    <t>5.915670046288792,</t>
+  </si>
+  <si>
+    <t>6.245781699566262,</t>
+  </si>
+  <si>
+    <t>6.118781228774566,</t>
+  </si>
+  <si>
+    <t>6.022863911773814,</t>
+  </si>
+  <si>
+    <t>5.930627463428138,</t>
+  </si>
+  <si>
+    <t>5.85941215336091,</t>
+  </si>
+  <si>
+    <t>6.1623020434251226,</t>
+  </si>
+  <si>
+    <t>6.048656429129861,</t>
+  </si>
+  <si>
+    <t>5.952417131856485,</t>
+  </si>
+  <si>
+    <t>5.853063314577943,</t>
+  </si>
+  <si>
+    <t>6.209791954957099,</t>
+  </si>
+  <si>
+    <t>6.070583039520574,</t>
+  </si>
+  <si>
+    <t>5.775852080075204,</t>
+  </si>
+  <si>
+    <t>5.978148837007024,</t>
+  </si>
+  <si>
+    <t>5.342185147673853,</t>
+  </si>
+  <si>
+    <t>5.8821773742433745,</t>
+  </si>
+  <si>
+    <t>5.2341327741469925,</t>
+  </si>
+  <si>
+    <t>6.032750087140191,</t>
+  </si>
+  <si>
+    <t>5.79954249250896,</t>
+  </si>
+  <si>
+    <t>5.5334473963326625,</t>
+  </si>
+  <si>
+    <t>6.041899111709155,</t>
+  </si>
+  <si>
+    <t>5.290612389902829,</t>
+  </si>
+  <si>
+    <t>5.353532259944286,</t>
+  </si>
+  <si>
+    <t>5.30676085479818,</t>
+  </si>
+  <si>
+    <t>5.5512806900983165,</t>
+  </si>
+  <si>
+    <t>5.847394020386,</t>
+  </si>
+  <si>
+    <t>4.87046819003511,</t>
+  </si>
+  <si>
+    <t>4.888519618963037,</t>
+  </si>
+  <si>
+    <t>4.827983091211025,</t>
+  </si>
+  <si>
+    <t>4.716543261559561,</t>
+  </si>
+  <si>
+    <t>4.60242046864544,</t>
+  </si>
+  <si>
+    <t>4.448748050767163,</t>
+  </si>
+  <si>
+    <t>4.2198574357273015,</t>
+  </si>
+  <si>
+    <t>4.822168452031248,</t>
+  </si>
+  <si>
+    <t>4.475005412551016,</t>
+  </si>
+  <si>
+    <t>2.922419056960879,</t>
+  </si>
+  <si>
+    <t>2.9921230628601165,</t>
+  </si>
+  <si>
+    <t>1.9693959347076224,</t>
+  </si>
+  <si>
+    <t>3.6867818278402624,</t>
+  </si>
+  <si>
+    <t>4.031146653478399,</t>
+  </si>
+  <si>
+    <t>3.7589389573986565,</t>
+  </si>
+  <si>
+    <t>3.9852437433158325,</t>
+  </si>
+  <si>
+    <t>3.688236460884939,</t>
+  </si>
+  <si>
+    <t>3.9610485386874723,</t>
+  </si>
+  <si>
+    <t>3.7269735813501685,</t>
+  </si>
+  <si>
+    <t>4.037796239150935,</t>
+  </si>
+  <si>
+    <t>3.8718460914246475,</t>
+  </si>
+  <si>
+    <t>4.120216395277694,</t>
+  </si>
+  <si>
+    <t>4.039732891618697,</t>
+  </si>
+  <si>
+    <t>3.7998782430364564,</t>
+  </si>
+  <si>
+    <t>3.277718438760606,</t>
+  </si>
+  <si>
+    <t>3.052631156453276,</t>
+  </si>
+  <si>
+    <t>3.000212981803481,</t>
+  </si>
+  <si>
+    <t>3.4983603234007488,</t>
+  </si>
+  <si>
+    <t>3.7130517464539974,</t>
+  </si>
+  <si>
+    <t>3.552412794268067,</t>
+  </si>
+  <si>
+    <t>3.6876878152023864,</t>
+  </si>
+  <si>
+    <t>3.587514031843635,</t>
+  </si>
+  <si>
+    <t>3.7573608552212456,</t>
+  </si>
+  <si>
+    <t>3.612814466501585,</t>
+  </si>
+  <si>
+    <t>3.8244929246606456,</t>
+  </si>
+  <si>
+    <t>3.7257037894213596,</t>
+  </si>
+  <si>
+    <t>3.618934298986376,</t>
+  </si>
+  <si>
+    <t>3.792137892497022,</t>
+  </si>
+  <si>
+    <t>3.692938529314921,</t>
+  </si>
+  <si>
+    <t>3.2357525464049424,</t>
+  </si>
+  <si>
+    <t>3.1358443902509676,</t>
+  </si>
+  <si>
+    <t>-1.7396667982315395,</t>
+  </si>
+  <si>
+    <t>2.8608972315352057,</t>
+  </si>
+  <si>
+    <t>2.9534802140356455,</t>
+  </si>
+  <si>
+    <t>2.8528755036842117,</t>
+  </si>
+  <si>
+    <t>3.106060454880746,</t>
+  </si>
+  <si>
+    <t>3.0406293079183357,</t>
+  </si>
+  <si>
+    <t>3.0104331217725213,</t>
+  </si>
+  <si>
+    <t>2.9907043955277777,</t>
+  </si>
+  <si>
+    <t>2.9291092774000247,</t>
+  </si>
+  <si>
+    <t>2.843731205419504,</t>
+  </si>
+  <si>
+    <t>2.8034973413656155,</t>
+  </si>
+  <si>
+    <t>2.7458850028655224,</t>
+  </si>
+  <si>
+    <t>2.669043450594519,</t>
+  </si>
+  <si>
+    <t>2.6255158550013813,</t>
+  </si>
+  <si>
+    <t>2.5527264057278747,</t>
+  </si>
+  <si>
+    <t>2.4603690899431943,</t>
+  </si>
+  <si>
+    <t>2.4226891095207708,</t>
+  </si>
+  <si>
+    <t>2.339091155828809,</t>
+  </si>
+  <si>
+    <t>2.2688806656798763,</t>
+  </si>
+  <si>
+    <t>2.2401108565309484,</t>
+  </si>
+  <si>
+    <t>2.1150627056193754,</t>
+  </si>
+  <si>
+    <t>2.0441107900075375,</t>
+  </si>
+  <si>
+    <t>2.0050202081394475,</t>
+  </si>
+  <si>
+    <t>1.896873321249672,</t>
+  </si>
+  <si>
+    <t>1.85985312781259,</t>
+  </si>
+  <si>
+    <t>1.7562848020534059,</t>
+  </si>
+  <si>
+    <t>1.6788074569015778,</t>
+  </si>
+  <si>
+    <t>1.630852809080655,</t>
+  </si>
+  <si>
+    <t>1.5121227791549343,</t>
+  </si>
+  <si>
+    <t>1.4883503592992715,</t>
+  </si>
+  <si>
+    <t>1.3574032336199882,</t>
+  </si>
+  <si>
+    <t>1.312182934103157,</t>
+  </si>
+  <si>
+    <t>1.2254872473736371,</t>
+  </si>
+  <si>
+    <t>1.1244419920321644,</t>
+  </si>
+  <si>
+    <t>1.0858391927522426,</t>
+  </si>
+  <si>
+    <t>0.9670322697365428,</t>
+  </si>
+  <si>
+    <t>0.9598133393315875,</t>
+  </si>
+  <si>
+    <t>0.8102202754433178,</t>
+  </si>
+  <si>
+    <t>0.7929487694121605,</t>
+  </si>
+  <si>
+    <t>0.6552908260216137,</t>
+  </si>
+  <si>
+    <t>0.605217381727431,</t>
+  </si>
+  <si>
+    <t>0.4890775955342942,</t>
+  </si>
+  <si>
+    <t>0.46296199743370364,</t>
+  </si>
+  <si>
+    <t>0.3896405558619567,</t>
+  </si>
+  <si>
+    <t>0.3146536486368081,</t>
+  </si>
+  <si>
+    <t>0.2825888738934149,</t>
+  </si>
+  <si>
+    <t>0.18348112340835868,</t>
+  </si>
+  <si>
+    <t>0.1428698801804049,</t>
+  </si>
+  <si>
+    <t>0.03158166120949759,</t>
+  </si>
+  <si>
+    <t>0.05744776387865543,</t>
+  </si>
+  <si>
+    <t>-0.11760776484525697,</t>
+  </si>
+  <si>
+    <t>-0.081281403050827,</t>
+  </si>
+  <si>
+    <t>-0.23097334402303407,</t>
+  </si>
+  <si>
+    <t>-0.2269103253618704,</t>
+  </si>
+  <si>
+    <t>-0.3899883431552653,</t>
+  </si>
+  <si>
+    <t>-0.38541157585751423,</t>
+  </si>
+  <si>
+    <t>-0.5367984853083481,</t>
+  </si>
+  <si>
+    <t>-0.5396336063069672,</t>
+  </si>
+  <si>
+    <t>-0.6238297078345436,</t>
+  </si>
+  <si>
+    <t>-0.7023360896480124,</t>
+  </si>
+  <si>
+    <t>-0.7245089576654923,</t>
+  </si>
+  <si>
+    <t>-0.8733912311935484,</t>
+  </si>
+  <si>
+    <t>-0.8292346236621673,</t>
+  </si>
+  <si>
+    <t>-1.0384531899417093,</t>
+  </si>
+  <si>
+    <t>-0.9684769285617384,</t>
+  </si>
+  <si>
+    <t>-1.1568057898044901,</t>
+  </si>
+  <si>
+    <t>-1.088534471122627,</t>
+  </si>
+  <si>
+    <t>-1.2853283913723126,</t>
+  </si>
+  <si>
+    <t>-1.261234086660667,</t>
+  </si>
+  <si>
+    <t>-1.3551336788548267,</t>
+  </si>
+  <si>
+    <t>-1.475807014968703,</t>
+  </si>
+  <si>
+    <t>-1.3937261222487058,</t>
+  </si>
+  <si>
+    <t>-1.6558088151110402,</t>
+  </si>
+  <si>
+    <t>-1.5089174543136117,</t>
+  </si>
+  <si>
+    <t>-1.7216790821749914,</t>
+  </si>
+  <si>
+    <t>-1.6691771444371055,</t>
+  </si>
+  <si>
+    <t>-1.8129814334162682,</t>
+  </si>
+  <si>
+    <t>-1.8214699267500951,</t>
+  </si>
+  <si>
+    <t>-1.8012352887554992,</t>
+  </si>
+  <si>
+    <t>-1.9975397979730198,</t>
+  </si>
+  <si>
+    <t>-1.8511639033117067,</t>
+  </si>
+  <si>
+    <t>-2.0849174974039952,</t>
+  </si>
+  <si>
+    <t>-1.9247285300943984,</t>
+  </si>
+  <si>
+    <t>-2.147027343779177,</t>
+  </si>
+  <si>
+    <t>-2.0548687236065573,</t>
+  </si>
+  <si>
+    <t>-2.17493471372068,</t>
+  </si>
+  <si>
+    <t>-2.1923082392237996,</t>
+  </si>
+  <si>
+    <t>-2.1413436798411833,</t>
+  </si>
+  <si>
+    <t>-2.276555903903872,</t>
+  </si>
+  <si>
+    <t>-2.041425396801103,</t>
+  </si>
+  <si>
+    <t>-2.3407845594745327,</t>
+  </si>
+  <si>
+    <t>-2.0862319188760945,</t>
+  </si>
+  <si>
+    <t>-2.3905357881350455,</t>
+  </si>
+  <si>
+    <t>-2.144809861055261,</t>
+  </si>
+  <si>
+    <t>-2.4045408772305588,</t>
+  </si>
+  <si>
+    <t>-2.197816463765564,</t>
+  </si>
+  <si>
+    <t>-2.4309058308181757,</t>
+  </si>
+  <si>
+    <t>-2.229759435986876,</t>
+  </si>
+  <si>
+    <t>-2.432585977911987,</t>
+  </si>
+  <si>
+    <t>-2.38972596802427,</t>
+  </si>
+  <si>
+    <t>-2.4202934012347237,</t>
+  </si>
+  <si>
+    <t>-2.5523948010967854,</t>
+  </si>
+  <si>
+    <t>-2.399682020176999,</t>
+  </si>
+  <si>
+    <t>-2.6549084803680336,</t>
+  </si>
+  <si>
+    <t>-2.4108804733216203,</t>
   </si>
 </sst>
 </file>
@@ -1905,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD47A09-F223-F940-BEF4-AA2C8F3C5A6D}">
-  <dimension ref="A1:IQ5"/>
+  <dimension ref="A1:IQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3441,6 +6447,3056 @@
         <v>-3.1724868864585098</v>
       </c>
     </row>
+    <row r="7" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H9" t="s">
+        <v>512</v>
+      </c>
+      <c r="I9" t="s">
+        <v>513</v>
+      </c>
+      <c r="J9" t="s">
+        <v>514</v>
+      </c>
+      <c r="K9" t="s">
+        <v>515</v>
+      </c>
+      <c r="L9" t="s">
+        <v>516</v>
+      </c>
+      <c r="M9" t="s">
+        <v>517</v>
+      </c>
+      <c r="N9" t="s">
+        <v>518</v>
+      </c>
+      <c r="O9" t="s">
+        <v>519</v>
+      </c>
+      <c r="P9" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>521</v>
+      </c>
+      <c r="R9" t="s">
+        <v>522</v>
+      </c>
+      <c r="S9" t="s">
+        <v>523</v>
+      </c>
+      <c r="T9" t="s">
+        <v>524</v>
+      </c>
+      <c r="U9" t="s">
+        <v>525</v>
+      </c>
+      <c r="V9" t="s">
+        <v>526</v>
+      </c>
+      <c r="W9" t="s">
+        <v>527</v>
+      </c>
+      <c r="X9" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>534</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>537</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>539</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>541</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>543</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>544</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>546</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>547</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>548</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>549</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>550</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>551</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>552</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>555</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>556</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>557</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>558</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>559</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>560</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>561</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>562</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>563</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>567</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>568</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>569</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>570</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>571</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>572</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>573</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>574</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>575</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>576</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>577</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>578</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>579</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>580</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>581</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>582</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>583</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>585</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>586</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>587</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>588</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>589</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>590</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>591</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>592</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>593</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>594</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>595</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>596</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>597</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>598</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>599</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>600</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>601</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>602</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>603</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>604</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>605</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>606</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>607</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>608</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>609</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>610</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>611</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>612</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>613</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>614</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>615</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>616</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>617</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>618</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>619</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>620</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>621</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>622</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>623</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>624</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>625</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>626</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>627</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>628</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>629</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>630</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>631</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>632</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>633</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>634</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>635</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>636</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>637</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>638</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>639</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>640</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>641</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>642</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>643</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>644</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>645</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>646</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>647</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>649</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>650</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>651</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>652</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>653</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>654</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>655</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>656</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>657</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>658</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>659</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>660</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>661</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>662</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>663</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>664</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>665</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>666</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>667</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>668</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>669</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>670</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>671</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>672</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>673</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>674</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>675</v>
+      </c>
+      <c r="FP9" t="s">
+        <v>676</v>
+      </c>
+      <c r="FQ9" t="s">
+        <v>677</v>
+      </c>
+      <c r="FR9" t="s">
+        <v>678</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>679</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>680</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>681</v>
+      </c>
+      <c r="FV9" t="s">
+        <v>682</v>
+      </c>
+      <c r="FW9" t="s">
+        <v>683</v>
+      </c>
+      <c r="FX9" t="s">
+        <v>684</v>
+      </c>
+      <c r="FY9" t="s">
+        <v>685</v>
+      </c>
+      <c r="FZ9" t="s">
+        <v>686</v>
+      </c>
+      <c r="GA9" t="s">
+        <v>687</v>
+      </c>
+      <c r="GB9" t="s">
+        <v>688</v>
+      </c>
+      <c r="GC9" t="s">
+        <v>689</v>
+      </c>
+      <c r="GD9" t="s">
+        <v>690</v>
+      </c>
+      <c r="GE9" t="s">
+        <v>691</v>
+      </c>
+      <c r="GF9" t="s">
+        <v>692</v>
+      </c>
+      <c r="GG9" t="s">
+        <v>693</v>
+      </c>
+      <c r="GH9" t="s">
+        <v>694</v>
+      </c>
+      <c r="GI9" t="s">
+        <v>695</v>
+      </c>
+      <c r="GJ9" t="s">
+        <v>696</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>697</v>
+      </c>
+      <c r="GL9" t="s">
+        <v>698</v>
+      </c>
+      <c r="GM9" t="s">
+        <v>699</v>
+      </c>
+      <c r="GN9" t="s">
+        <v>700</v>
+      </c>
+      <c r="GO9" t="s">
+        <v>701</v>
+      </c>
+      <c r="GP9" t="s">
+        <v>702</v>
+      </c>
+      <c r="GQ9" t="s">
+        <v>703</v>
+      </c>
+      <c r="GR9" t="s">
+        <v>704</v>
+      </c>
+      <c r="GS9" t="s">
+        <v>705</v>
+      </c>
+      <c r="GT9" t="s">
+        <v>706</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>707</v>
+      </c>
+      <c r="GV9" t="s">
+        <v>708</v>
+      </c>
+      <c r="GW9" t="s">
+        <v>709</v>
+      </c>
+      <c r="GX9" t="s">
+        <v>710</v>
+      </c>
+      <c r="GY9" t="s">
+        <v>711</v>
+      </c>
+      <c r="GZ9" t="s">
+        <v>712</v>
+      </c>
+      <c r="HA9" t="s">
+        <v>713</v>
+      </c>
+      <c r="HB9" t="s">
+        <v>714</v>
+      </c>
+      <c r="HC9" t="s">
+        <v>715</v>
+      </c>
+      <c r="HD9" t="s">
+        <v>716</v>
+      </c>
+      <c r="HE9" t="s">
+        <v>717</v>
+      </c>
+      <c r="HF9" t="s">
+        <v>718</v>
+      </c>
+      <c r="HG9" t="s">
+        <v>719</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>720</v>
+      </c>
+      <c r="HI9" t="s">
+        <v>721</v>
+      </c>
+      <c r="HJ9" t="s">
+        <v>722</v>
+      </c>
+      <c r="HK9" t="s">
+        <v>723</v>
+      </c>
+      <c r="HL9" t="s">
+        <v>724</v>
+      </c>
+      <c r="HM9" t="s">
+        <v>725</v>
+      </c>
+      <c r="HN9" t="s">
+        <v>726</v>
+      </c>
+      <c r="HO9" t="s">
+        <v>727</v>
+      </c>
+      <c r="HP9" t="s">
+        <v>728</v>
+      </c>
+      <c r="HQ9" t="s">
+        <v>729</v>
+      </c>
+      <c r="HR9" t="s">
+        <v>730</v>
+      </c>
+      <c r="HS9" t="s">
+        <v>731</v>
+      </c>
+      <c r="HT9" t="s">
+        <v>732</v>
+      </c>
+      <c r="HU9" t="s">
+        <v>733</v>
+      </c>
+      <c r="HV9" t="s">
+        <v>734</v>
+      </c>
+      <c r="HW9" t="s">
+        <v>735</v>
+      </c>
+      <c r="HX9" t="s">
+        <v>736</v>
+      </c>
+      <c r="HY9" t="s">
+        <v>737</v>
+      </c>
+      <c r="HZ9" t="s">
+        <v>738</v>
+      </c>
+      <c r="IA9" t="s">
+        <v>739</v>
+      </c>
+      <c r="IB9" t="s">
+        <v>740</v>
+      </c>
+      <c r="IC9" t="s">
+        <v>741</v>
+      </c>
+      <c r="ID9" t="s">
+        <v>742</v>
+      </c>
+      <c r="IE9" t="s">
+        <v>743</v>
+      </c>
+      <c r="IF9" t="s">
+        <v>744</v>
+      </c>
+      <c r="IG9" t="s">
+        <v>745</v>
+      </c>
+      <c r="IH9" t="s">
+        <v>746</v>
+      </c>
+      <c r="II9" t="s">
+        <v>747</v>
+      </c>
+      <c r="IJ9" t="s">
+        <v>748</v>
+      </c>
+      <c r="IK9" t="s">
+        <v>749</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>750</v>
+      </c>
+      <c r="IM9" t="s">
+        <v>751</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>752</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>753</v>
+      </c>
+      <c r="IP9" t="s">
+        <v>754</v>
+      </c>
+      <c r="IQ9">
+        <v>13.192126683530599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C11" t="s">
+        <v>757</v>
+      </c>
+      <c r="D11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E11" t="s">
+        <v>759</v>
+      </c>
+      <c r="F11" t="s">
+        <v>760</v>
+      </c>
+      <c r="G11" t="s">
+        <v>761</v>
+      </c>
+      <c r="H11" t="s">
+        <v>762</v>
+      </c>
+      <c r="I11" t="s">
+        <v>763</v>
+      </c>
+      <c r="J11" t="s">
+        <v>764</v>
+      </c>
+      <c r="K11" t="s">
+        <v>765</v>
+      </c>
+      <c r="L11" t="s">
+        <v>766</v>
+      </c>
+      <c r="M11" t="s">
+        <v>767</v>
+      </c>
+      <c r="N11" t="s">
+        <v>768</v>
+      </c>
+      <c r="O11" t="s">
+        <v>769</v>
+      </c>
+      <c r="P11" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>771</v>
+      </c>
+      <c r="R11" t="s">
+        <v>772</v>
+      </c>
+      <c r="S11" t="s">
+        <v>773</v>
+      </c>
+      <c r="T11" t="s">
+        <v>774</v>
+      </c>
+      <c r="U11" t="s">
+        <v>775</v>
+      </c>
+      <c r="V11" t="s">
+        <v>776</v>
+      </c>
+      <c r="W11" t="s">
+        <v>777</v>
+      </c>
+      <c r="X11" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>782</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>783</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>785</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>786</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>788</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>789</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>790</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>791</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>792</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>793</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>794</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>795</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>796</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>797</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>798</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>799</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>800</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>801</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>802</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>803</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>804</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>805</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>806</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>807</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>808</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>809</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>810</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>811</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>812</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>813</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>814</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>815</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>816</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>817</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>818</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>819</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>820</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>821</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>822</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>823</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>824</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>825</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>826</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>827</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>828</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>829</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>830</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>831</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>832</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>833</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>834</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>835</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>836</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>837</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>838</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>839</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>840</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>841</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>842</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>843</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>844</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>845</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>846</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>847</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>848</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>849</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>850</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>851</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>852</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>853</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>854</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>855</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>856</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>857</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>858</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>859</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>860</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>861</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>862</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>863</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>864</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>865</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>866</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>867</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>868</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>869</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>870</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>871</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>872</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>873</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>874</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>875</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>876</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>877</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>878</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>879</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>880</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>881</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>882</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>883</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>884</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>885</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>886</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>887</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>888</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>889</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>890</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>891</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>892</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>893</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>894</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>895</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>896</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>897</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>898</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>899</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>900</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>901</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>902</v>
+      </c>
+      <c r="ES11" t="s">
+        <v>903</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>904</v>
+      </c>
+      <c r="EU11" t="s">
+        <v>905</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>906</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>907</v>
+      </c>
+      <c r="EX11" t="s">
+        <v>908</v>
+      </c>
+      <c r="EY11" t="s">
+        <v>909</v>
+      </c>
+      <c r="EZ11" t="s">
+        <v>910</v>
+      </c>
+      <c r="FA11" t="s">
+        <v>911</v>
+      </c>
+      <c r="FB11" t="s">
+        <v>912</v>
+      </c>
+      <c r="FC11" t="s">
+        <v>913</v>
+      </c>
+      <c r="FD11" t="s">
+        <v>914</v>
+      </c>
+      <c r="FE11" t="s">
+        <v>915</v>
+      </c>
+      <c r="FF11" t="s">
+        <v>916</v>
+      </c>
+      <c r="FG11" t="s">
+        <v>917</v>
+      </c>
+      <c r="FH11" t="s">
+        <v>918</v>
+      </c>
+      <c r="FI11" t="s">
+        <v>919</v>
+      </c>
+      <c r="FJ11" t="s">
+        <v>920</v>
+      </c>
+      <c r="FK11" t="s">
+        <v>921</v>
+      </c>
+      <c r="FL11" t="s">
+        <v>922</v>
+      </c>
+      <c r="FM11" t="s">
+        <v>923</v>
+      </c>
+      <c r="FN11" t="s">
+        <v>924</v>
+      </c>
+      <c r="FO11" t="s">
+        <v>925</v>
+      </c>
+      <c r="FP11" t="s">
+        <v>926</v>
+      </c>
+      <c r="FQ11" t="s">
+        <v>927</v>
+      </c>
+      <c r="FR11" t="s">
+        <v>928</v>
+      </c>
+      <c r="FS11" t="s">
+        <v>929</v>
+      </c>
+      <c r="FT11" t="s">
+        <v>930</v>
+      </c>
+      <c r="FU11" t="s">
+        <v>931</v>
+      </c>
+      <c r="FV11" t="s">
+        <v>932</v>
+      </c>
+      <c r="FW11" t="s">
+        <v>933</v>
+      </c>
+      <c r="FX11" t="s">
+        <v>934</v>
+      </c>
+      <c r="FY11" t="s">
+        <v>935</v>
+      </c>
+      <c r="FZ11" t="s">
+        <v>936</v>
+      </c>
+      <c r="GA11" t="s">
+        <v>937</v>
+      </c>
+      <c r="GB11" t="s">
+        <v>938</v>
+      </c>
+      <c r="GC11" t="s">
+        <v>939</v>
+      </c>
+      <c r="GD11" t="s">
+        <v>940</v>
+      </c>
+      <c r="GE11" t="s">
+        <v>941</v>
+      </c>
+      <c r="GF11" t="s">
+        <v>942</v>
+      </c>
+      <c r="GG11" t="s">
+        <v>943</v>
+      </c>
+      <c r="GH11" t="s">
+        <v>944</v>
+      </c>
+      <c r="GI11" t="s">
+        <v>945</v>
+      </c>
+      <c r="GJ11" t="s">
+        <v>946</v>
+      </c>
+      <c r="GK11" t="s">
+        <v>947</v>
+      </c>
+      <c r="GL11" t="s">
+        <v>948</v>
+      </c>
+      <c r="GM11" t="s">
+        <v>949</v>
+      </c>
+      <c r="GN11" t="s">
+        <v>950</v>
+      </c>
+      <c r="GO11" t="s">
+        <v>951</v>
+      </c>
+      <c r="GP11" t="s">
+        <v>952</v>
+      </c>
+      <c r="GQ11" t="s">
+        <v>953</v>
+      </c>
+      <c r="GR11" t="s">
+        <v>954</v>
+      </c>
+      <c r="GS11" t="s">
+        <v>955</v>
+      </c>
+      <c r="GT11" t="s">
+        <v>956</v>
+      </c>
+      <c r="GU11" t="s">
+        <v>957</v>
+      </c>
+      <c r="GV11" t="s">
+        <v>958</v>
+      </c>
+      <c r="GW11" t="s">
+        <v>959</v>
+      </c>
+      <c r="GX11" t="s">
+        <v>960</v>
+      </c>
+      <c r="GY11" t="s">
+        <v>961</v>
+      </c>
+      <c r="GZ11" t="s">
+        <v>962</v>
+      </c>
+      <c r="HA11" t="s">
+        <v>963</v>
+      </c>
+      <c r="HB11" t="s">
+        <v>964</v>
+      </c>
+      <c r="HC11" t="s">
+        <v>965</v>
+      </c>
+      <c r="HD11" t="s">
+        <v>966</v>
+      </c>
+      <c r="HE11" t="s">
+        <v>967</v>
+      </c>
+      <c r="HF11" t="s">
+        <v>968</v>
+      </c>
+      <c r="HG11" t="s">
+        <v>969</v>
+      </c>
+      <c r="HH11" t="s">
+        <v>970</v>
+      </c>
+      <c r="HI11" t="s">
+        <v>971</v>
+      </c>
+      <c r="HJ11" t="s">
+        <v>972</v>
+      </c>
+      <c r="HK11" t="s">
+        <v>973</v>
+      </c>
+      <c r="HL11" t="s">
+        <v>974</v>
+      </c>
+      <c r="HM11" t="s">
+        <v>975</v>
+      </c>
+      <c r="HN11" t="s">
+        <v>976</v>
+      </c>
+      <c r="HO11" t="s">
+        <v>977</v>
+      </c>
+      <c r="HP11" t="s">
+        <v>978</v>
+      </c>
+      <c r="HQ11" t="s">
+        <v>979</v>
+      </c>
+      <c r="HR11" t="s">
+        <v>980</v>
+      </c>
+      <c r="HS11" t="s">
+        <v>981</v>
+      </c>
+      <c r="HT11" t="s">
+        <v>982</v>
+      </c>
+      <c r="HU11" t="s">
+        <v>983</v>
+      </c>
+      <c r="HV11" t="s">
+        <v>984</v>
+      </c>
+      <c r="HW11" t="s">
+        <v>985</v>
+      </c>
+      <c r="HX11" t="s">
+        <v>986</v>
+      </c>
+      <c r="HY11" t="s">
+        <v>987</v>
+      </c>
+      <c r="HZ11" t="s">
+        <v>988</v>
+      </c>
+      <c r="IA11" t="s">
+        <v>989</v>
+      </c>
+      <c r="IB11" t="s">
+        <v>990</v>
+      </c>
+      <c r="IC11" t="s">
+        <v>991</v>
+      </c>
+      <c r="ID11" t="s">
+        <v>992</v>
+      </c>
+      <c r="IE11" t="s">
+        <v>993</v>
+      </c>
+      <c r="IF11" t="s">
+        <v>994</v>
+      </c>
+      <c r="IG11" t="s">
+        <v>995</v>
+      </c>
+      <c r="IH11" t="s">
+        <v>996</v>
+      </c>
+      <c r="II11" t="s">
+        <v>997</v>
+      </c>
+      <c r="IJ11" t="s">
+        <v>998</v>
+      </c>
+      <c r="IK11" t="s">
+        <v>999</v>
+      </c>
+      <c r="IL11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="IM11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="IN11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="IO11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="IP11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="IQ11">
+        <v>0.19629337727613499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>1063</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>1068</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>1082</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>1115</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="EY15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EZ15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="FA15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="FB15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="FC15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="FD15" t="s">
+        <v>1165</v>
+      </c>
+      <c r="FE15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="FF15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="FG15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="FH15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="FI15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="FJ15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="FK15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="FL15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="FM15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="FN15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="FO15" t="s">
+        <v>1176</v>
+      </c>
+      <c r="FP15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="FQ15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="FR15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="FS15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="FT15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="FU15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="FV15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="FW15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="FX15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="FY15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="FZ15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="GA15" t="s">
+        <v>1188</v>
+      </c>
+      <c r="GB15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="GC15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="GD15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="GE15" t="s">
+        <v>1192</v>
+      </c>
+      <c r="GF15" t="s">
+        <v>1193</v>
+      </c>
+      <c r="GG15" t="s">
+        <v>1194</v>
+      </c>
+      <c r="GH15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="GI15" t="s">
+        <v>1196</v>
+      </c>
+      <c r="GJ15" t="s">
+        <v>1197</v>
+      </c>
+      <c r="GK15" t="s">
+        <v>1198</v>
+      </c>
+      <c r="GL15" t="s">
+        <v>1199</v>
+      </c>
+      <c r="GM15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="GN15" t="s">
+        <v>1201</v>
+      </c>
+      <c r="GO15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="GP15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="GQ15" t="s">
+        <v>1204</v>
+      </c>
+      <c r="GR15" t="s">
+        <v>1205</v>
+      </c>
+      <c r="GS15" t="s">
+        <v>1206</v>
+      </c>
+      <c r="GT15" t="s">
+        <v>1207</v>
+      </c>
+      <c r="GU15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="GV15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="GW15" t="s">
+        <v>1210</v>
+      </c>
+      <c r="GX15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="GY15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="GZ15" t="s">
+        <v>1213</v>
+      </c>
+      <c r="HA15" t="s">
+        <v>1214</v>
+      </c>
+      <c r="HB15" t="s">
+        <v>1215</v>
+      </c>
+      <c r="HC15" t="s">
+        <v>1216</v>
+      </c>
+      <c r="HD15" t="s">
+        <v>1217</v>
+      </c>
+      <c r="HE15" t="s">
+        <v>1218</v>
+      </c>
+      <c r="HF15" t="s">
+        <v>1219</v>
+      </c>
+      <c r="HG15" t="s">
+        <v>1220</v>
+      </c>
+      <c r="HH15" t="s">
+        <v>1221</v>
+      </c>
+      <c r="HI15" t="s">
+        <v>1222</v>
+      </c>
+      <c r="HJ15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="HK15" t="s">
+        <v>1224</v>
+      </c>
+      <c r="HL15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="HM15" t="s">
+        <v>1226</v>
+      </c>
+      <c r="HN15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="HO15" t="s">
+        <v>1228</v>
+      </c>
+      <c r="HP15" t="s">
+        <v>1229</v>
+      </c>
+      <c r="HQ15" t="s">
+        <v>1230</v>
+      </c>
+      <c r="HR15" t="s">
+        <v>1231</v>
+      </c>
+      <c r="HS15" t="s">
+        <v>1232</v>
+      </c>
+      <c r="HT15" t="s">
+        <v>1233</v>
+      </c>
+      <c r="HU15" t="s">
+        <v>1234</v>
+      </c>
+      <c r="HV15" t="s">
+        <v>1235</v>
+      </c>
+      <c r="HW15" t="s">
+        <v>1236</v>
+      </c>
+      <c r="HX15" t="s">
+        <v>1237</v>
+      </c>
+      <c r="HY15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="HZ15" t="s">
+        <v>1239</v>
+      </c>
+      <c r="IA15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="IB15" t="s">
+        <v>1241</v>
+      </c>
+      <c r="IC15" t="s">
+        <v>1242</v>
+      </c>
+      <c r="ID15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="IE15" t="s">
+        <v>1244</v>
+      </c>
+      <c r="IF15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="IG15" t="s">
+        <v>1246</v>
+      </c>
+      <c r="IH15" t="s">
+        <v>1247</v>
+      </c>
+      <c r="II15" t="s">
+        <v>1248</v>
+      </c>
+      <c r="IJ15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="IK15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="IL15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="IM15" t="s">
+        <v>1252</v>
+      </c>
+      <c r="IN15" t="s">
+        <v>1253</v>
+      </c>
+      <c r="IO15" t="s">
+        <v>1254</v>
+      </c>
+      <c r="IP15" t="s">
+        <v>1255</v>
+      </c>
+      <c r="IQ15">
+        <v>8.4087502846859792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>1308</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>1312</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>1313</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>1314</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>1320</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>1321</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>1330</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>1334</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>1344</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>1353</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>1359</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>1362</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="DG17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="DH17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="DI17" t="s">
+        <v>1368</v>
+      </c>
+      <c r="DJ17" t="s">
+        <v>1369</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>1370</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>1371</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>1372</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>1373</v>
+      </c>
+      <c r="DO17" t="s">
+        <v>1374</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>1375</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>1377</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>1378</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>1380</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>1382</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>1384</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>1385</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>1390</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>1394</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="EL17" t="s">
+        <v>1397</v>
+      </c>
+      <c r="EM17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="EN17" t="s">
+        <v>1399</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>1400</v>
+      </c>
+      <c r="EP17" t="s">
+        <v>1401</v>
+      </c>
+      <c r="EQ17" t="s">
+        <v>1402</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>1403</v>
+      </c>
+      <c r="ES17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="ET17" t="s">
+        <v>1405</v>
+      </c>
+      <c r="EU17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>1407</v>
+      </c>
+      <c r="EW17" t="s">
+        <v>1408</v>
+      </c>
+      <c r="EX17" t="s">
+        <v>1409</v>
+      </c>
+      <c r="EY17" t="s">
+        <v>1410</v>
+      </c>
+      <c r="EZ17" t="s">
+        <v>1411</v>
+      </c>
+      <c r="FA17" t="s">
+        <v>1412</v>
+      </c>
+      <c r="FB17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="FC17" t="s">
+        <v>1414</v>
+      </c>
+      <c r="FD17" t="s">
+        <v>1415</v>
+      </c>
+      <c r="FE17" t="s">
+        <v>1416</v>
+      </c>
+      <c r="FF17" t="s">
+        <v>1417</v>
+      </c>
+      <c r="FG17" t="s">
+        <v>1418</v>
+      </c>
+      <c r="FH17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="FI17" t="s">
+        <v>1420</v>
+      </c>
+      <c r="FJ17" t="s">
+        <v>1421</v>
+      </c>
+      <c r="FK17" t="s">
+        <v>1422</v>
+      </c>
+      <c r="FL17" t="s">
+        <v>1423</v>
+      </c>
+      <c r="FM17" t="s">
+        <v>1424</v>
+      </c>
+      <c r="FN17" t="s">
+        <v>1425</v>
+      </c>
+      <c r="FO17" t="s">
+        <v>1426</v>
+      </c>
+      <c r="FP17" t="s">
+        <v>1427</v>
+      </c>
+      <c r="FQ17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="FR17" t="s">
+        <v>1429</v>
+      </c>
+      <c r="FS17" t="s">
+        <v>1430</v>
+      </c>
+      <c r="FT17" t="s">
+        <v>1431</v>
+      </c>
+      <c r="FU17" t="s">
+        <v>1432</v>
+      </c>
+      <c r="FV17" t="s">
+        <v>1433</v>
+      </c>
+      <c r="FW17" t="s">
+        <v>1434</v>
+      </c>
+      <c r="FX17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="FY17" t="s">
+        <v>1436</v>
+      </c>
+      <c r="FZ17" t="s">
+        <v>1437</v>
+      </c>
+      <c r="GA17" t="s">
+        <v>1438</v>
+      </c>
+      <c r="GB17" t="s">
+        <v>1439</v>
+      </c>
+      <c r="GC17" t="s">
+        <v>1440</v>
+      </c>
+      <c r="GD17" t="s">
+        <v>1441</v>
+      </c>
+      <c r="GE17" t="s">
+        <v>1442</v>
+      </c>
+      <c r="GF17" t="s">
+        <v>1443</v>
+      </c>
+      <c r="GG17" t="s">
+        <v>1444</v>
+      </c>
+      <c r="GH17" t="s">
+        <v>1445</v>
+      </c>
+      <c r="GI17" t="s">
+        <v>1446</v>
+      </c>
+      <c r="GJ17" t="s">
+        <v>1447</v>
+      </c>
+      <c r="GK17" t="s">
+        <v>1448</v>
+      </c>
+      <c r="GL17" t="s">
+        <v>1449</v>
+      </c>
+      <c r="GM17" t="s">
+        <v>1450</v>
+      </c>
+      <c r="GN17" t="s">
+        <v>1451</v>
+      </c>
+      <c r="GO17" t="s">
+        <v>1452</v>
+      </c>
+      <c r="GP17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="GQ17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="GR17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="GS17" t="s">
+        <v>1456</v>
+      </c>
+      <c r="GT17" t="s">
+        <v>1457</v>
+      </c>
+      <c r="GU17" t="s">
+        <v>1458</v>
+      </c>
+      <c r="GV17" t="s">
+        <v>1459</v>
+      </c>
+      <c r="GW17" t="s">
+        <v>1460</v>
+      </c>
+      <c r="GX17" t="s">
+        <v>1461</v>
+      </c>
+      <c r="GY17" t="s">
+        <v>1462</v>
+      </c>
+      <c r="GZ17" t="s">
+        <v>1463</v>
+      </c>
+      <c r="HA17" t="s">
+        <v>1464</v>
+      </c>
+      <c r="HB17" t="s">
+        <v>1465</v>
+      </c>
+      <c r="HC17" t="s">
+        <v>1466</v>
+      </c>
+      <c r="HD17" t="s">
+        <v>1467</v>
+      </c>
+      <c r="HE17" t="s">
+        <v>1468</v>
+      </c>
+      <c r="HF17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="HG17" t="s">
+        <v>1470</v>
+      </c>
+      <c r="HH17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="HI17" t="s">
+        <v>1472</v>
+      </c>
+      <c r="HJ17" t="s">
+        <v>1473</v>
+      </c>
+      <c r="HK17" t="s">
+        <v>1474</v>
+      </c>
+      <c r="HL17" t="s">
+        <v>1475</v>
+      </c>
+      <c r="HM17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="HN17" t="s">
+        <v>1477</v>
+      </c>
+      <c r="HO17" t="s">
+        <v>1478</v>
+      </c>
+      <c r="HP17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="HQ17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="HR17" t="s">
+        <v>1481</v>
+      </c>
+      <c r="HS17" t="s">
+        <v>1482</v>
+      </c>
+      <c r="HT17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="HU17" t="s">
+        <v>1484</v>
+      </c>
+      <c r="HV17" t="s">
+        <v>1485</v>
+      </c>
+      <c r="HW17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="HX17" t="s">
+        <v>1487</v>
+      </c>
+      <c r="HY17" t="s">
+        <v>1488</v>
+      </c>
+      <c r="HZ17" t="s">
+        <v>1489</v>
+      </c>
+      <c r="IA17" t="s">
+        <v>1490</v>
+      </c>
+      <c r="IB17" t="s">
+        <v>1491</v>
+      </c>
+      <c r="IC17" t="s">
+        <v>1492</v>
+      </c>
+      <c r="ID17" t="s">
+        <v>1493</v>
+      </c>
+      <c r="IE17" t="s">
+        <v>1494</v>
+      </c>
+      <c r="IF17" t="s">
+        <v>1495</v>
+      </c>
+      <c r="IG17" t="s">
+        <v>1496</v>
+      </c>
+      <c r="IH17" t="s">
+        <v>1497</v>
+      </c>
+      <c r="II17" t="s">
+        <v>1498</v>
+      </c>
+      <c r="IJ17" t="s">
+        <v>1499</v>
+      </c>
+      <c r="IK17" t="s">
+        <v>1500</v>
+      </c>
+      <c r="IL17" t="s">
+        <v>1501</v>
+      </c>
+      <c r="IM17" t="s">
+        <v>1502</v>
+      </c>
+      <c r="IN17" t="s">
+        <v>1503</v>
+      </c>
+      <c r="IO17" t="s">
+        <v>1504</v>
+      </c>
+      <c r="IP17" t="s">
+        <v>1505</v>
+      </c>
+      <c r="IQ17">
+        <v>-2.6236153463570102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
